--- a/data/trans_orig/P64D$andando_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64D$andando_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D68160E-7ABA-4CCE-807C-B0F09B495995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A74C671-2B39-4576-81EC-191812F1C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93E62EC0-BB68-4DDF-97C6-5271DB4E2064}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{17D3994B-F38F-40AD-A0F8-FC26B5F8191F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="217">
-  <si>
-    <t>Población según cómo se desplaza desde su casa al centro de trabajo/estudios en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="213">
+  <si>
+    <t>Población según cómo se desplaza desde su casa al centro de trabajo/estudios (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,31 +65,31 @@
     <t>Andando</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>En bicicleta</t>
@@ -98,10 +98,10 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -113,577 +113,565 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>En vehículo particular</t>
   </si>
   <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>En transporte público</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>En otros medios</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>No realiza estos trayectos</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>No realiza estos trayectos</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1098,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EEA3B2-675D-42BB-9DA6-96F747C19E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC5276D-59D8-4105-9A00-C9D77194A65E}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1539,10 +1527,10 @@
         <v>106</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1551,66 +1539,66 @@
         <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1619,31 +1607,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="I17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1652,31 +1640,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1685,31 +1673,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1718,31 +1706,31 @@
         <v>48</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="I20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1751,31 +1739,31 @@
         <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1786,31 +1774,31 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1819,31 +1807,31 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1852,31 +1840,31 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1885,25 +1873,25 @@
         <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>198</v>
@@ -1921,16 +1909,16 @@
         <v>200</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>203</v>
@@ -1939,10 +1927,10 @@
         <v>204</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1951,36 +1939,36 @@
         <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="K27" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
